--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3348.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3348.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3348</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Luteru Ross Poutoa Lote Taylor</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2441</t>
+          <t>2441</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2445</t>
+          <t>2445</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2574</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2575</t>
+          <t>2575</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2576</t>
+          <t>2576</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2577</t>
+          <t>2577</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +869,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>09/01/2007</t>
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2578</t>
+          <t>2578</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2580</t>
+          <t>2580</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2581</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2586</t>
+          <t>2586</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2589</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2595</t>
+          <t>2595</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2597</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2608</t>
+          <t>2608</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2617</t>
+          <t>2617</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1268,7 +1332,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>16/02/2007</t>
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2631</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2633</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2634</t>
+          <t>2634</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1432,7 +1495,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2643</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1484,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2651</t>
+          <t>2651</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1536,7 +1599,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2676</t>
+          <t>2676</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1588,7 +1651,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2678</t>
+          <t>2678</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1640,7 +1703,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2684</t>
+          <t>2684</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1692,7 +1755,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2686</t>
+          <t>2686</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1744,7 +1807,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2759</t>
+          <t>2759</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1796,7 +1859,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2761</t>
+          <t>2761</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1848,7 +1911,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2763</t>
+          <t>2763</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1900,7 +1963,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2767</t>
+          <t>2767</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1952,7 +2015,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2768</t>
+          <t>2768</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2004,7 +2067,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2769</t>
+          <t>2769</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2056,7 +2119,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2770</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2108,7 +2171,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2771</t>
+          <t>2771</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2148,7 +2211,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>31/12/2007</t>
@@ -2156,7 +2218,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2772</t>
+          <t>2772</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2208,7 +2270,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2786</t>
+          <t>2786</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2248,7 +2310,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>12/02/2008</t>
@@ -2256,7 +2317,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2789</t>
+          <t>2789</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2308,7 +2369,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2790</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2360,7 +2421,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2794</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2412,7 +2473,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2796</t>
+          <t>2796</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2464,7 +2525,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2820</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2577,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2821</t>
+          <t>2821</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2568,7 +2629,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2822</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2620,7 +2681,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2826</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2672,7 +2733,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2832</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2724,7 +2785,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2839</t>
+          <t>2839</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2776,7 +2837,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2843</t>
+          <t>2843</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2828,7 +2889,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2880</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2880,7 +2941,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2881</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2932,7 +2993,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2882</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2972,7 +3033,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>31/12/2008</t>
@@ -2980,7 +3040,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2908</t>
+          <t>2908</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3032,7 +3092,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2909</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3084,7 +3144,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2910</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3136,7 +3196,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2911</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3188,7 +3248,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2914</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3240,7 +3300,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2933</t>
+          <t>2933</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3292,7 +3352,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2938</t>
+          <t>2938</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3344,7 +3404,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2939</t>
+          <t>2939</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3396,7 +3456,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2941</t>
+          <t>2941</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3448,7 +3508,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2942</t>
+          <t>2942</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3500,7 +3560,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2943</t>
+          <t>2943</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3540,7 +3600,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>06/03/2009</t>
@@ -3548,7 +3607,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2944</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3600,7 +3659,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2945</t>
+          <t>2945</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3652,7 +3711,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2946</t>
+          <t>2946</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3704,7 +3763,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2947</t>
+          <t>2947</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3756,7 +3815,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3011</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3808,7 +3867,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3013</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3860,7 +3919,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3022</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3912,7 +3971,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3026</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3964,7 +4023,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3029</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4016,7 +4075,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3033</t>
+          <t>3033</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4068,7 +4127,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3034</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4120,7 +4179,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3047</t>
+          <t>3047</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4172,7 +4231,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3051</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4224,7 +4283,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3054</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4276,7 +4335,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3079</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4328,7 +4387,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3081</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4380,7 +4439,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4432,7 +4491,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3096</t>
+          <t>3096</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4484,7 +4543,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3101</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4536,7 +4595,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3103</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4588,7 +4647,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3105</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4640,7 +4699,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3161</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4692,7 +4751,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3162</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4732,7 +4791,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>20/08/2010</t>
@@ -4740,7 +4798,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3168</t>
+          <t>3168</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4792,7 +4850,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4844,7 +4902,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3182</t>
+          <t>3182</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4896,7 +4954,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3186</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4948,7 +5006,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5000,7 +5058,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5052,7 +5110,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3204</t>
+          <t>3204</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5104,7 +5162,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3206</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5156,7 +5214,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3208</t>
+          <t>3208</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5208,7 +5266,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3210</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5260,7 +5318,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3212</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5312,7 +5370,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3220</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5352,7 +5410,6 @@
           <t>95</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -5360,7 +5417,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3223</t>
+          <t>3223</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5412,7 +5469,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3225</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5464,7 +5521,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3228</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5516,7 +5573,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3230</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5568,7 +5625,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3232</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5608,7 +5665,6 @@
           <t>100</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>20/02/2011</t>
@@ -5616,7 +5672,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3236</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5668,7 +5724,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3242</t>
+          <t>3242</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5708,7 +5764,6 @@
           <t>102</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>04/03/2011</t>
@@ -5716,7 +5771,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3252</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5768,7 +5823,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3258</t>
+          <t>3258</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5820,7 +5875,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3264</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5872,7 +5927,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3272</t>
+          <t>3272</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5924,7 +5979,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3279</t>
+          <t>3279</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5976,7 +6031,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3281</t>
+          <t>3281</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6016,7 +6071,6 @@
           <t>108</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -6024,7 +6078,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3340</t>
+          <t>3340</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6076,7 +6130,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3342</t>
+          <t>3342</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6128,7 +6182,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3345</t>
+          <t>3345</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6180,7 +6234,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6232,7 +6286,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6284,7 +6338,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3446</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6336,7 +6390,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3447</t>
+          <t>3447</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6388,7 +6442,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6428,7 +6482,6 @@
           <t>116</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -6436,7 +6489,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6488,7 +6541,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6540,7 +6593,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6592,7 +6645,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6644,7 +6697,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6696,7 +6749,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6748,7 +6801,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6800,7 +6853,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3508</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6852,7 +6905,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3511</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6904,7 +6957,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3515</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6956,7 +7009,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7008,7 +7061,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7060,7 +7113,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3573</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7112,7 +7165,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3593</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7164,7 +7217,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7216,7 +7269,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3597</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7268,7 +7321,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3598</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7320,7 +7373,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7372,7 +7425,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7424,7 +7477,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7476,7 +7529,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7528,7 +7581,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7580,7 +7633,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7632,7 +7685,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3715</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7684,7 +7737,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3717</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7736,7 +7789,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3719</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7788,7 +7841,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3720</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7840,7 +7893,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3726</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7892,7 +7945,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3729</t>
+          <t>3729</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7944,7 +7997,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3734</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7996,7 +8049,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8048,7 +8101,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8100,7 +8153,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8152,7 +8205,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3745</t>
+          <t>3745</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8204,7 +8257,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3747</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8256,7 +8309,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8308,7 +8361,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8360,7 +8413,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8412,7 +8465,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8464,7 +8517,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8516,7 +8569,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8568,7 +8621,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8620,7 +8673,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3794</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8672,7 +8725,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8724,7 +8777,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8776,7 +8829,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8828,7 +8881,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8880,7 +8933,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8932,7 +8985,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8984,7 +9037,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3823</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9024,7 +9077,6 @@
           <t>166</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
           <t>04/08/2015</t>
@@ -9032,7 +9084,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3824</t>
+          <t>3824</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9084,7 +9136,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9124,7 +9176,6 @@
           <t>168</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
           <t>28/12/2015</t>
@@ -9132,7 +9183,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9184,7 +9235,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9236,7 +9287,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9288,7 +9339,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9340,7 +9391,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9392,7 +9443,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9444,7 +9495,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9496,7 +9547,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9548,7 +9599,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9600,7 +9651,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9652,7 +9703,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9704,7 +9755,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9756,7 +9807,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9808,7 +9859,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9860,7 +9911,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9912,7 +9963,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9964,7 +10015,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10016,7 +10067,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10068,7 +10119,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10120,7 +10171,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10172,7 +10223,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10224,7 +10275,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10276,7 +10327,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10328,7 +10379,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10380,7 +10431,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10432,7 +10483,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10484,7 +10535,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10536,7 +10587,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10588,7 +10639,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10640,7 +10691,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10692,7 +10743,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10744,7 +10795,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10796,7 +10847,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10848,7 +10899,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10900,7 +10951,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -10952,7 +11003,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -11004,7 +11055,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -11056,7 +11107,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -11108,7 +11159,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11148,7 +11199,6 @@
           <t>207</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -11156,7 +11206,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -11208,7 +11258,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -11260,7 +11310,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11312,7 +11362,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -11364,7 +11414,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11416,7 +11466,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11468,7 +11518,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -11520,7 +11570,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -11572,7 +11622,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -11624,7 +11674,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11676,7 +11726,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -11728,7 +11778,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11768,7 +11818,6 @@
           <t>219</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -11776,7 +11825,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -11828,7 +11877,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -11880,7 +11929,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -11932,7 +11981,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -11984,7 +12033,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -12036,7 +12085,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -12088,7 +12137,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -12140,7 +12189,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -12192,7 +12241,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -12244,7 +12293,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -12296,7 +12345,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -12348,7 +12397,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -12400,7 +12449,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -12452,7 +12501,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -12504,7 +12553,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -12556,7 +12605,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4563</t>
+          <t>4563</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -12608,7 +12657,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4566</t>
+          <t>4566</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -12660,7 +12709,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4568</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -12699,7 +12748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12721,7 +12770,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -12758,7 +12807,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2595</t>
+          <t>2595</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12795,7 +12844,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2771</t>
+          <t>2771</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -12832,7 +12881,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2820</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -12869,7 +12918,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3186</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -12895,6 +12944,519 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>0/3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9.17%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.91%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.75%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>19.11%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.14%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.20%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5.39%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3348.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3348.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F117" t="inlineStr">

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3348.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3348.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -869,6 +868,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>09/01/2007</t>
@@ -1332,6 +1332,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>16/02/2007</t>
@@ -2211,6 +2212,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>31/12/2007</t>
@@ -2310,6 +2312,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>12/02/2008</t>
@@ -3033,6 +3036,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>31/12/2008</t>
@@ -3600,6 +3604,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>06/03/2009</t>
@@ -4791,6 +4796,7 @@
           <t>83</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>20/08/2010</t>
@@ -5410,6 +5416,7 @@
           <t>95</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -5665,6 +5672,7 @@
           <t>100</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>20/02/2011</t>
@@ -5764,6 +5772,7 @@
           <t>102</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>04/03/2011</t>
@@ -6071,6 +6080,7 @@
           <t>108</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -6482,6 +6492,7 @@
           <t>116</t>
         </is>
       </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -9077,6 +9088,7 @@
           <t>166</t>
         </is>
       </c>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
           <t>04/08/2015</t>
@@ -9176,6 +9188,7 @@
           <t>168</t>
         </is>
       </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
           <t>28/12/2015</t>
@@ -11199,6 +11212,7 @@
           <t>207</t>
         </is>
       </c>
+      <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -11818,6 +11832,7 @@
           <t>219</t>
         </is>
       </c>
+      <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -12950,517 +12965,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4251</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9.17%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4252</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.91%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4311</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>27.75%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4328</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.41%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>19.11%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.00%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.14%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.20%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4563</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.39%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4566</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4568</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>